--- a/Client/Resources/Data/Animation/Enemy/Boss/BossEnemy.xlsx
+++ b/Client/Resources/Data/Animation/Enemy/Boss/BossEnemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Animation\Enemy\Boss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0F8C13-3FAD-464F-8D2D-56BFEE808FD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB82811-68F5-41AE-A213-C919893F7E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,26 @@
   </si>
   <si>
     <t>Enemy_Boss_Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SonicStab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_Boss_Stab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeteorSlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_Boss_SwordSwing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealMeteorSlash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -399,7 +419,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNTA(A3:A39)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -421,7 +441,40 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.04</v>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Resources/Data/Animation/Enemy/Boss/BossEnemy.xlsx
+++ b/Client/Resources/Data/Animation/Enemy/Boss/BossEnemy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Animation\Enemy\Boss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB82811-68F5-41AE-A213-C919893F7E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A5DE39-CC8F-4991-A753-861444EB765A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>RealMeteorSlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserWave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_Boss_Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -419,7 +427,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNTA(A3:A39)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -474,6 +482,17 @@
         <v>10</v>
       </c>
       <c r="C7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
         <v>0.06</v>
       </c>
     </row>

--- a/Client/Resources/Data/Animation/Enemy/Boss/BossEnemy.xlsx
+++ b/Client/Resources/Data/Animation/Enemy/Boss/BossEnemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Animation\Enemy\Boss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A5DE39-CC8F-4991-A753-861444EB765A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC59FC3-E0EA-4504-97BC-889DA4B9AC2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>Enemy_Boss_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_Boss_Death</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -427,7 +435,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNTA(A3:A39)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -493,6 +501,17 @@
         <v>13</v>
       </c>
       <c r="C8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
         <v>0.06</v>
       </c>
     </row>

--- a/Client/Resources/Data/Animation/Enemy/Boss/BossEnemy.xlsx
+++ b/Client/Resources/Data/Animation/Enemy/Boss/BossEnemy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Animation\Enemy\Boss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC59FC3-E0EA-4504-97BC-889DA4B9AC2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0F8C13-3FAD-464F-8D2D-56BFEE808FD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,42 +52,6 @@
   </si>
   <si>
     <t>Enemy_Boss_Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SonicStab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy_Boss_Stab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeteorSlash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy_Boss_SwordSwing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RealMeteorSlash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaserWave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy_Boss_Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Death</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy_Boss_Death</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -435,7 +399,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNTA(A3:A39)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -457,62 +421,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Resources/Data/Animation/Enemy/Boss/BossEnemy.xlsx
+++ b/Client/Resources/Data/Animation/Enemy/Boss/BossEnemy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Animation\Enemy\Boss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0F8C13-3FAD-464F-8D2D-56BFEE808FD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055F4A1F-8F8F-41C1-9D91-A1163ECD4CA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,33 +25,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TextureTag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_Boss_Idle</t>
   </si>
   <si>
     <t>Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy_Boss_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Enemy_Boss_Move</t>
+  </si>
+  <si>
+    <t>SonicStab</t>
+  </si>
+  <si>
+    <t>Enemy_Boss_Stab</t>
+  </si>
+  <si>
+    <t>MeteorSlash</t>
+  </si>
+  <si>
+    <t>Enemy_Boss_SwordSwing</t>
+  </si>
+  <si>
+    <t>RealMeteorSlash</t>
+  </si>
+  <si>
+    <t>LaserWave</t>
+  </si>
+  <si>
+    <t>Enemy_Boss_Up</t>
+  </si>
+  <si>
+    <t>RealLaserWave</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Enemy_Boss_Death</t>
+  </si>
+  <si>
+    <t>ReadyMove</t>
+  </si>
+  <si>
+    <t>Enemy_Boss_ReadyMove</t>
+  </si>
+  <si>
+    <t>LaserBurst</t>
+  </si>
+  <si>
+    <t>SpawnRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -398,8 +434,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>COUNTA(A3:A39)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -407,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0.06</v>
@@ -415,12 +450,111 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
         <v>0.04</v>
       </c>
     </row>
